--- a/Q3_ Propriedade e Responsabilidade pela Gestão da Mata.xlsx
+++ b/Q3_ Propriedade e Responsabilidade pela Gestão da Mata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="200">
   <si>
     <t>Id</t>
   </si>
@@ -651,295 +651,12 @@
     <t xml:space="preserve"> Quem cuida da mata?</t>
   </si>
   <si>
-    <t>Os donos</t>
-  </si>
-  <si>
-    <r>
-      <t>Fam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ília Chilaule</t>
-    </r>
-  </si>
-  <si>
-    <t>Família Chilaule</t>
-  </si>
-  <si>
-    <r>
-      <t>Autoridades Comunit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>á</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rias</t>
-    </r>
-  </si>
-  <si>
-    <t>Autoridades Comunitárias</t>
-  </si>
-  <si>
     <t>Criadores de gado</t>
   </si>
   <si>
     <t>Ninguém cuida</t>
   </si>
   <si>
-    <t>Comunidade em geral</t>
-  </si>
-  <si>
-    <t>Família Matavel</t>
-  </si>
-  <si>
-    <r>
-      <t>Lu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>í</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s Matavel</t>
-    </r>
-  </si>
-  <si>
-    <t>Autoridades Locais</t>
-  </si>
-  <si>
-    <r>
-      <t>Ant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ó</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nio Michavo</t>
-    </r>
-  </si>
-  <si>
-    <t>Família Mhula</t>
-  </si>
-  <si>
-    <r>
-      <t>Governo e Fam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>í</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lia Mhula</t>
-    </r>
-  </si>
-  <si>
-    <t>Sr. Mhula</t>
-  </si>
-  <si>
-    <t>Comunidade em geral e Governo</t>
-  </si>
-  <si>
-    <t>Comunidade de Nkwinhine</t>
-  </si>
-  <si>
-    <t>Comunidade em Geral</t>
-  </si>
-  <si>
-    <r>
-      <t>Fam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>í</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lia Mhula</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Fam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>í</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lia Matavel</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Alguns anci</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>õ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">es </t>
-    </r>
-  </si>
-  <si>
-    <t>O governo e a comunidade  em geral</t>
-  </si>
-  <si>
-    <r>
-      <t>Ant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ónio Michavo e esposa</t>
-    </r>
-  </si>
-  <si>
-    <t>O governo e  Comunidade em geral</t>
-  </si>
-  <si>
-    <r>
-      <t>Fam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>í</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lia Mhula e Governo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ó</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nio Mhula</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">           Há (mais ou menos) quanto tempo conhece a mata ?</t>
   </si>
   <si>
@@ -949,13 +666,19 @@
     <t>Entidade Mistica</t>
   </si>
   <si>
-    <t>António e Beatriz Mhula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anciões da Comunidade  </t>
-  </si>
-  <si>
-    <t>Luís Matavel</t>
+    <t>Autoridades locais</t>
+  </si>
+  <si>
+    <t>O Autoridades locais e  Comunidade local</t>
+  </si>
+  <si>
+    <t>Guardiões e Autoridades locais</t>
+  </si>
+  <si>
+    <t>Autoridades locais e a Comunidade local</t>
+  </si>
+  <si>
+    <t>Comunidade local e Autoridades locais</t>
   </si>
 </sst>
 </file>
@@ -1333,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="D144" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1086,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>181</v>
@@ -1404,7 +1127,7 @@
         <v>172</v>
       </c>
       <c r="I2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1433,7 +1156,7 @@
         <v>172</v>
       </c>
       <c r="I3" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1491,7 +1214,7 @@
         <v>172</v>
       </c>
       <c r="I5" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1549,7 +1272,7 @@
         <v>172</v>
       </c>
       <c r="I7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1578,7 +1301,7 @@
         <v>172</v>
       </c>
       <c r="I8" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1607,7 +1330,7 @@
         <v>172</v>
       </c>
       <c r="I9" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1665,7 +1388,7 @@
         <v>172</v>
       </c>
       <c r="I11" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1723,7 +1446,7 @@
         <v>172</v>
       </c>
       <c r="I13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1752,7 +1475,7 @@
         <v>172</v>
       </c>
       <c r="I14" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1781,7 +1504,7 @@
         <v>172</v>
       </c>
       <c r="I15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1810,7 +1533,7 @@
         <v>172</v>
       </c>
       <c r="I16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1868,7 +1591,7 @@
         <v>172</v>
       </c>
       <c r="I18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1984,7 +1707,7 @@
         <v>172</v>
       </c>
       <c r="I22" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2059,7 +1782,7 @@
         <v>21</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="F25" t="s">
         <v>187</v>
@@ -2071,7 +1794,7 @@
         <v>187</v>
       </c>
       <c r="I25" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2100,7 +1823,7 @@
         <v>186</v>
       </c>
       <c r="I26" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2129,7 +1852,7 @@
         <v>186</v>
       </c>
       <c r="I27" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2216,7 +1939,7 @@
         <v>172</v>
       </c>
       <c r="I30" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2245,7 +1968,7 @@
         <v>172</v>
       </c>
       <c r="I31" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2274,7 +1997,7 @@
         <v>186</v>
       </c>
       <c r="I32" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2390,7 +2113,7 @@
         <v>172</v>
       </c>
       <c r="I36" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2419,7 +2142,7 @@
         <v>172</v>
       </c>
       <c r="I37" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2448,7 +2171,7 @@
         <v>186</v>
       </c>
       <c r="I38" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2477,7 +2200,7 @@
         <v>186</v>
       </c>
       <c r="I39" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2506,7 +2229,7 @@
         <v>186</v>
       </c>
       <c r="I40" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2535,7 +2258,7 @@
         <v>172</v>
       </c>
       <c r="I41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2564,7 +2287,7 @@
         <v>172</v>
       </c>
       <c r="I42" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2622,7 +2345,7 @@
         <v>172</v>
       </c>
       <c r="I44" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2680,7 +2403,7 @@
         <v>186</v>
       </c>
       <c r="I46" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2709,7 +2432,7 @@
         <v>172</v>
       </c>
       <c r="I47" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2738,7 +2461,7 @@
         <v>186</v>
       </c>
       <c r="I48" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2854,7 +2577,7 @@
         <v>186</v>
       </c>
       <c r="I52" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2883,7 +2606,7 @@
         <v>186</v>
       </c>
       <c r="I53" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2912,7 +2635,7 @@
         <v>186</v>
       </c>
       <c r="I54" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2941,7 +2664,7 @@
         <v>186</v>
       </c>
       <c r="I55" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2999,7 +2722,7 @@
         <v>186</v>
       </c>
       <c r="I57" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3028,7 +2751,7 @@
         <v>172</v>
       </c>
       <c r="I58" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3057,7 +2780,7 @@
         <v>186</v>
       </c>
       <c r="I59" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3086,7 +2809,7 @@
         <v>186</v>
       </c>
       <c r="I60" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3202,7 +2925,7 @@
         <v>172</v>
       </c>
       <c r="I64" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3231,7 +2954,7 @@
         <v>172</v>
       </c>
       <c r="I65" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3260,7 +2983,7 @@
         <v>172</v>
       </c>
       <c r="I66" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3318,7 +3041,7 @@
         <v>172</v>
       </c>
       <c r="I68" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3405,7 +3128,7 @@
         <v>172</v>
       </c>
       <c r="I71" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3434,7 +3157,7 @@
         <v>172</v>
       </c>
       <c r="I72" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3463,7 +3186,7 @@
         <v>172</v>
       </c>
       <c r="I73" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3521,7 +3244,7 @@
         <v>172</v>
       </c>
       <c r="I75" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3550,7 +3273,7 @@
         <v>172</v>
       </c>
       <c r="I76" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3579,7 +3302,7 @@
         <v>172</v>
       </c>
       <c r="I77" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3724,7 +3447,7 @@
         <v>172</v>
       </c>
       <c r="I82" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3753,7 +3476,7 @@
         <v>172</v>
       </c>
       <c r="I83" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3770,7 +3493,7 @@
         <v>75</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="F84" t="s">
         <v>174</v>
@@ -3869,7 +3592,7 @@
         <v>172</v>
       </c>
       <c r="I87" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3898,7 +3621,7 @@
         <v>184</v>
       </c>
       <c r="I88" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3927,7 +3650,7 @@
         <v>174</v>
       </c>
       <c r="I89" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3944,7 +3667,7 @@
         <v>45</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="F90" t="s">
         <v>172</v>
@@ -3985,7 +3708,7 @@
         <v>172</v>
       </c>
       <c r="I91" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -4014,7 +3737,7 @@
         <v>172</v>
       </c>
       <c r="I92" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -4043,7 +3766,7 @@
         <v>172</v>
       </c>
       <c r="I93" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -4072,7 +3795,7 @@
         <v>172</v>
       </c>
       <c r="I94" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -4101,7 +3824,7 @@
         <v>172</v>
       </c>
       <c r="I95" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -4159,7 +3882,7 @@
         <v>172</v>
       </c>
       <c r="I97" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -4176,7 +3899,7 @@
         <v>78</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="F98" t="s">
         <v>172</v>
@@ -4217,7 +3940,7 @@
         <v>172</v>
       </c>
       <c r="I99" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -4275,7 +3998,7 @@
         <v>172</v>
       </c>
       <c r="I101" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -4304,7 +4027,7 @@
         <v>172</v>
       </c>
       <c r="I102" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -4333,7 +4056,7 @@
         <v>172</v>
       </c>
       <c r="I103" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -4362,7 +4085,7 @@
         <v>172</v>
       </c>
       <c r="I104" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -4391,7 +4114,7 @@
         <v>172</v>
       </c>
       <c r="I105" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -4420,7 +4143,7 @@
         <v>172</v>
       </c>
       <c r="I106" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -4449,7 +4172,7 @@
         <v>172</v>
       </c>
       <c r="I107" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -4507,7 +4230,7 @@
         <v>184</v>
       </c>
       <c r="I109" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -4536,7 +4259,7 @@
         <v>172</v>
       </c>
       <c r="I110" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -4565,7 +4288,7 @@
         <v>172</v>
       </c>
       <c r="I111" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -4594,7 +4317,7 @@
         <v>172</v>
       </c>
       <c r="I112" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4623,7 +4346,7 @@
         <v>172</v>
       </c>
       <c r="I113" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4681,7 +4404,7 @@
         <v>172</v>
       </c>
       <c r="I115" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4698,7 +4421,7 @@
         <v>80</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="F116" t="s">
         <v>172</v>
@@ -4710,7 +4433,7 @@
         <v>172</v>
       </c>
       <c r="I116" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4739,7 +4462,7 @@
         <v>172</v>
       </c>
       <c r="I117" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -4768,7 +4491,7 @@
         <v>172</v>
       </c>
       <c r="I118" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -4785,7 +4508,7 @@
         <v>36</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="F119" t="s">
         <v>172</v>
@@ -4797,7 +4520,7 @@
         <v>172</v>
       </c>
       <c r="I119" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -4855,7 +4578,7 @@
         <v>186</v>
       </c>
       <c r="I121" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4884,7 +4607,7 @@
         <v>172</v>
       </c>
       <c r="I122" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -4913,7 +4636,7 @@
         <v>184</v>
       </c>
       <c r="I123" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4942,7 +4665,7 @@
         <v>172</v>
       </c>
       <c r="I124" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4971,7 +4694,7 @@
         <v>172</v>
       </c>
       <c r="I125" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5000,7 +4723,7 @@
         <v>172</v>
       </c>
       <c r="I126" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5029,7 +4752,7 @@
         <v>172</v>
       </c>
       <c r="I127" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5058,7 +4781,7 @@
         <v>172</v>
       </c>
       <c r="I128" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -5087,7 +4810,7 @@
         <v>172</v>
       </c>
       <c r="I129" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -5104,7 +4827,7 @@
         <v>78</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="F130" t="s">
         <v>172</v>
@@ -5116,7 +4839,7 @@
         <v>172</v>
       </c>
       <c r="I130" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -5145,7 +4868,7 @@
         <v>172</v>
       </c>
       <c r="I131" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -5174,7 +4897,7 @@
         <v>172</v>
       </c>
       <c r="I132" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -5232,7 +4955,7 @@
         <v>174</v>
       </c>
       <c r="I134" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -5261,7 +4984,7 @@
         <v>186</v>
       </c>
       <c r="I135" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -5290,7 +5013,7 @@
         <v>172</v>
       </c>
       <c r="I136" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -5377,7 +5100,7 @@
         <v>172</v>
       </c>
       <c r="I139" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -5458,7 +5181,7 @@
         <v>172</v>
       </c>
       <c r="G142" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="H142" t="s">
         <v>186</v>
@@ -5493,7 +5216,7 @@
         <v>172</v>
       </c>
       <c r="I143" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -5522,7 +5245,7 @@
         <v>172</v>
       </c>
       <c r="I144" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -5580,7 +5303,7 @@
         <v>172</v>
       </c>
       <c r="I146" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -5609,7 +5332,7 @@
         <v>172</v>
       </c>
       <c r="I147" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -5638,7 +5361,7 @@
         <v>172</v>
       </c>
       <c r="I148" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -5667,7 +5390,7 @@
         <v>172</v>
       </c>
       <c r="I149" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -5696,7 +5419,7 @@
         <v>184</v>
       </c>
       <c r="I150" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -5725,7 +5448,7 @@
         <v>172</v>
       </c>
       <c r="I151" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -5754,7 +5477,7 @@
         <v>172</v>
       </c>
       <c r="I152" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -5783,7 +5506,7 @@
         <v>172</v>
       </c>
       <c r="I153" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -5812,7 +5535,7 @@
         <v>172</v>
       </c>
       <c r="I154" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -5841,7 +5564,7 @@
         <v>172</v>
       </c>
       <c r="I155" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -5870,7 +5593,7 @@
         <v>174</v>
       </c>
       <c r="I156" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -5899,7 +5622,7 @@
         <v>172</v>
       </c>
       <c r="I157" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -5928,7 +5651,7 @@
         <v>172</v>
       </c>
       <c r="I158" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -5957,7 +5680,7 @@
         <v>186</v>
       </c>
       <c r="I159" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -6015,7 +5738,7 @@
         <v>184</v>
       </c>
       <c r="I161" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -6073,7 +5796,7 @@
         <v>172</v>
       </c>
       <c r="I163" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
